--- a/dashboards/regional sales dashboard.xlsx
+++ b/dashboards/regional sales dashboard.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMMING\PYTHON\PROJECTS\ds_projects\excel_projects\dashboards\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROGRAMMING\PYTHON\PROJECTS\ds_projects\dashboards\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Dashboard" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Calculation" sheetId="3" state="veryHidden" r:id="rId3"/>
+    <sheet name="Calculation" sheetId="3" state="hidden" r:id="rId3"/>
     <sheet name="Final Image" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="31">
   <si>
     <t>Division</t>
   </si>
@@ -110,9 +110,6 @@
   </si>
   <si>
     <t>Total revenue for selection</t>
-  </si>
-  <si>
-    <t>$A$6&amp;" Apps sold"</t>
   </si>
   <si>
     <t>Min</t>
@@ -298,1162 +295,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="346">
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="12"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="11"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <sz val="8"/>
-      </font>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
+  <dxfs count="31">
     <dxf>
       <numFmt numFmtId="165" formatCode="0.0%"/>
     </dxf>
@@ -1704,23 +546,23 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Slicer Pivot" table="0" count="13">
-      <tableStyleElement type="wholeTable" dxfId="345"/>
-      <tableStyleElement type="headerRow" dxfId="344"/>
-      <tableStyleElement type="totalRow" dxfId="343"/>
-      <tableStyleElement type="firstColumn" dxfId="342"/>
-      <tableStyleElement type="firstRowStripe" dxfId="341"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="340"/>
-      <tableStyleElement type="firstSubtotalColumn" dxfId="339"/>
-      <tableStyleElement type="firstSubtotalRow" dxfId="338"/>
-      <tableStyleElement type="secondSubtotalRow" dxfId="337"/>
-      <tableStyleElement type="firstRowSubheading" dxfId="336"/>
-      <tableStyleElement type="secondRowSubheading" dxfId="335"/>
-      <tableStyleElement type="pageFieldLabels" dxfId="334"/>
-      <tableStyleElement type="pageFieldValues" dxfId="333"/>
+      <tableStyleElement type="wholeTable" dxfId="30"/>
+      <tableStyleElement type="headerRow" dxfId="29"/>
+      <tableStyleElement type="totalRow" dxfId="28"/>
+      <tableStyleElement type="firstColumn" dxfId="27"/>
+      <tableStyleElement type="firstRowStripe" dxfId="26"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="25"/>
+      <tableStyleElement type="firstSubtotalColumn" dxfId="24"/>
+      <tableStyleElement type="firstSubtotalRow" dxfId="23"/>
+      <tableStyleElement type="secondSubtotalRow" dxfId="22"/>
+      <tableStyleElement type="firstRowSubheading" dxfId="21"/>
+      <tableStyleElement type="secondRowSubheading" dxfId="20"/>
+      <tableStyleElement type="pageFieldLabels" dxfId="19"/>
+      <tableStyleElement type="pageFieldValues" dxfId="18"/>
     </tableStyle>
     <tableStyle name="Slicer_Dashboard" pivot="0" table="0" count="10">
-      <tableStyleElement type="wholeTable" dxfId="332"/>
-      <tableStyleElement type="headerRow" dxfId="331"/>
+      <tableStyleElement type="wholeTable" dxfId="17"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2123,19 +965,19 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>44675</c:v>
+                  <c:v>34155</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>42569</c:v>
+                  <c:v>24396</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>43784</c:v>
+                  <c:v>29276</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>46336</c:v>
+                  <c:v>45540</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49656</c:v>
+                  <c:v>29277</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2209,10 +1051,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>45540</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49656</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2296,19 +1138,19 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>45404</c:v>
+                  <c:v>32528.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45404</c:v>
+                  <c:v>32528.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45404</c:v>
+                  <c:v>32528.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45404</c:v>
+                  <c:v>32528.799999999999</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45404</c:v>
+                  <c:v>32528.799999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2506,13 +1348,13 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>81322</c:v>
+                  <c:v>17077.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81322</c:v>
+                  <c:v>17077.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81322</c:v>
+                  <c:v>17077.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2573,13 +1415,13 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>64376</c:v>
+                  <c:v>10520</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>27335</c:v>
+                  <c:v>10041</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2626,7 +1468,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{57A2007A-B930-4A02-8DBC-D26C21EE686E}" type="CELLRANGE">
+                    <a:fld id="{B9FC2947-61A3-461F-9D99-3E57AB0FE84C}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2661,7 +1503,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{F3980924-63BD-4082-B19D-1BA5D0E5C827}" type="CELLRANGE">
+                    <a:fld id="{FAE47D02-A87C-482C-AF69-206C93CE148D}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2696,7 +1538,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3CE516F9-B942-4075-8F29-A6938DEEF3D5}" type="CELLRANGE">
+                    <a:fld id="{35805803-D56D-45F7-8513-0FCA9DD90BF8}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -2788,13 +1630,13 @@
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>81322</c:v>
+                  <c:v>17077.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>81322</c:v>
+                  <c:v>17077.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>81322</c:v>
+                  <c:v>17077.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2806,13 +1648,13 @@
                 <c15:dlblRangeCache>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>227,020</c:v>
+                    <c:v>44,675</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>162,644</c:v>
+                    <c:v>34,155</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>189,979</c:v>
+                    <c:v>44,196</c:v>
                   </c:pt>
                 </c15:dlblRangeCache>
               </c15:datalabelsRange>
@@ -4207,56 +3049,6 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>266701</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16384</xdr:col>
-      <xdr:colOff>30258</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>6185</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Picture 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9334501" y="0"/>
-          <a:ext cx="1358466" cy="953923"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -4270,8 +3062,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>127000</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="5" name="Division"/>
@@ -4288,7 +3080,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4355,7 +3147,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4365,14 +3157,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>306917</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>148167</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>41020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>105833</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>172599</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>402167</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>25780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Calculation!$L$5">
       <xdr:nvSpPr>
@@ -4381,8 +3173,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="306917" y="3937000"/>
-          <a:ext cx="1608666" cy="405432"/>
+          <a:off x="306917" y="4020353"/>
+          <a:ext cx="1301750" cy="365760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4417,7 +3209,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>$ 227,020</a:t>
+            <a:t>$ 162,644</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2800" b="1">
             <a:solidFill>
@@ -4432,16 +3224,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="absolute">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>179917</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>317500</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>51603</xdr:rowOff>
+      <xdr:rowOff>95284</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>333975</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>172599</xdr:rowOff>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>25780</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="Calculation!M5">
       <xdr:nvSpPr>
@@ -4450,8 +3242,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1989667" y="4030936"/>
-          <a:ext cx="1572225" cy="311496"/>
+          <a:off x="1524000" y="4074617"/>
+          <a:ext cx="1873250" cy="311496"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4473,7 +3265,7 @@
         </a:fontRef>
       </xdr:style>
       <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="b">
           <a:spAutoFit/>
         </a:bodyPr>
         <a:lstStyle/>
@@ -4486,7 +3278,7 @@
               <a:latin typeface="+mn-lt"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>$A$6&amp;" Apps sold"</a:t>
+            <a:t>Productivity Apps sold</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="1400">
             <a:solidFill>
@@ -4555,7 +3347,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>Australia bought the most Game apps</a:t>
+            <a:t>Europe bought the most Productivity apps</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2000">
             <a:solidFill>
@@ -4627,7 +3419,7 @@
               <a:latin typeface="Calibri"/>
             </a:rPr>
             <a:pPr/>
-            <a:t>South America bought the least Game apps</a:t>
+            <a:t>South America bought the least Productivity apps</a:t>
           </a:fld>
           <a:endParaRPr lang="en-US" sz="2000">
             <a:solidFill>
@@ -4656,8 +3448,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>130175</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="4" name="Region"/>
@@ -4674,7 +3466,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -4741,7 +3533,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -4818,8 +3610,8 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-        <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+        <mc:Choice Requires="a14">
           <xdr:pic>
             <xdr:nvPicPr>
               <xdr:cNvPr id="13" name="Picture 12"/>
@@ -4827,13 +3619,13 @@
                 <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
                 <a:extLst>
                   <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                    <a14:cameraTool cellRange="Calculation!$A$15:$E$20" spid="_x0000_s1091"/>
+                    <a14:cameraTool cellRange="Calculation!$A$15:$E$20" spid="_x0000_s1099"/>
                   </a:ext>
                 </a:extLst>
               </xdr:cNvPicPr>
             </xdr:nvPicPr>
             <xdr:blipFill rotWithShape="1">
-              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+              <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
               <a:srcRect t="15111"/>
               <a:stretch>
                 <a:fillRect/>
@@ -4859,7 +3651,7 @@
             </xdr:spPr>
           </xdr:pic>
         </mc:Choice>
-        <mc:Fallback/>
+        <mc:Fallback xmlns=""/>
       </mc:AlternateContent>
       <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
@@ -4978,13 +3770,13 @@
               <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
               <a:extLst>
                 <a:ext uri="{84589F7E-364E-4C9E-8A38-B11213B215E9}">
-                  <a14:cameraTool cellRange="logo" spid="_x0000_s1092"/>
+                  <a14:cameraTool cellRange="logo" spid="_x0000_s1100"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPicPr>
           </xdr:nvPicPr>
           <xdr:blipFill rotWithShape="1">
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
             <a:srcRect l="12177" t="7269" r="10959" b="7581"/>
             <a:stretch>
               <a:fillRect/>
@@ -5450,11 +4242,11 @@
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0">
       <items count="6">
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
+        <item h="1" x="2"/>
+        <item h="1" x="4"/>
+        <item h="1" x="3"/>
         <item x="0"/>
-        <item x="1"/>
+        <item h="1" x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -5509,7 +4301,7 @@
     <dataField name=" " fld="3" showDataAs="percentDiff" baseField="0" baseItem="1" numFmtId="10"/>
   </dataFields>
   <formats count="15">
-    <format dxfId="329">
+    <format dxfId="14">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1" selected="0">
@@ -5521,10 +4313,10 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="328">
+    <format dxfId="13">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="327">
+    <format dxfId="12">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -5533,20 +4325,20 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="326">
+    <format dxfId="11">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="325">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="324">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="323">
+    <format dxfId="8">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -5558,27 +4350,27 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="322">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="321">
+    <format dxfId="6">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="320">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="1" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="319">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="318">
+    <format dxfId="3">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -5587,7 +4379,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="317">
+    <format dxfId="2">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -5599,7 +4391,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="316">
+    <format dxfId="1">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -5611,7 +4403,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="315">
+    <format dxfId="0">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -5651,8 +4443,8 @@
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
       <items count="4">
-        <item x="2"/>
-        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item x="1"/>
         <item h="1" x="0"/>
         <item t="default"/>
       </items>
@@ -5665,7 +4457,7 @@
   </rowFields>
   <rowItems count="1">
     <i>
-      <x/>
+      <x v="1"/>
     </i>
   </rowItems>
   <colItems count="1">
@@ -5688,8 +4480,8 @@
   <data>
     <tabular pivotCacheId="1">
       <items count="3">
-        <i x="2" s="1"/>
-        <i x="1"/>
+        <i x="2"/>
+        <i x="1" s="1"/>
         <i x="0"/>
       </items>
     </tabular>
@@ -5706,10 +4498,10 @@
     <tabular pivotCacheId="1">
       <items count="5">
         <i x="0" s="1"/>
-        <i x="1" s="1"/>
-        <i x="2" s="1"/>
-        <i x="3" s="1"/>
-        <i x="4" s="1"/>
+        <i x="1"/>
+        <i x="2"/>
+        <i x="3"/>
+        <i x="4"/>
       </items>
     </tabular>
   </data>
@@ -5724,7 +4516,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="RawData" displayName="RawData" ref="A1:D31" totalsRowShown="0" headerRowDxfId="330">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="RawData" displayName="RawData" ref="A1:D31" totalsRowShown="0" headerRowDxfId="15">
   <autoFilter ref="A1:D31"/>
   <tableColumns count="4">
     <tableColumn id="1" name="Year"/>
@@ -6606,7 +5398,6 @@
     <row r="29" spans="1:19" hidden="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -7084,8 +5875,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A2:O28"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7140,7 +5931,7 @@
       </c>
       <c r="G5" s="6">
         <f>SUMIFS(RawData[Revenue],RawData[Year],$B$6,RawData[Division],$A$6,RawData[Region],$F5)</f>
-        <v>44675</v>
+        <v>34155</v>
       </c>
       <c r="H5" t="str">
         <f>IF(G5=MAX($G$5:$G$9),G5,"")</f>
@@ -7148,22 +5939,23 @@
       </c>
       <c r="I5" s="6">
         <f t="shared" ref="I5:I9" si="0">AVERAGE($G$5:$G$9)</f>
-        <v>45404</v>
+        <v>32528.799999999999</v>
       </c>
       <c r="K5" t="s">
         <v>20</v>
       </c>
       <c r="L5" s="9">
         <f>SUM($G$5:$G$9)</f>
-        <v>227020</v>
-      </c>
-      <c r="M5" t="s">
-        <v>21</v>
+        <v>162644</v>
+      </c>
+      <c r="M5" t="str">
+        <f>$A$6&amp;" Apps sold"</f>
+        <v>Productivity Apps sold</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
@@ -7173,7 +5965,7 @@
       </c>
       <c r="G6" s="6">
         <f>SUMIFS(RawData[Revenue],RawData[Year],$B$6,RawData[Division],$A$6,RawData[Region],$F6)</f>
-        <v>42569</v>
+        <v>24396</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" ref="H6:H9" si="1">IF(G6=MAX($G$5:$G$9),G6,"")</f>
@@ -7181,14 +5973,14 @@
       </c>
       <c r="I6" s="6">
         <f t="shared" si="0"/>
-        <v>45404</v>
+        <v>32528.799999999999</v>
       </c>
       <c r="K6" t="s">
         <v>18</v>
       </c>
       <c r="L6" t="str">
         <f>INDEX($F$5:$F$9,MATCH(MAX($G$5:$G$9),$G$5:$G$9,0)) &amp;" bought the most "&amp;A6&amp;" apps"</f>
-        <v>Australia bought the most Game apps</v>
+        <v>Europe bought the most Productivity apps</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -7197,7 +5989,7 @@
       </c>
       <c r="G7" s="6">
         <f>SUMIFS(RawData[Revenue],RawData[Year],$B$6,RawData[Division],$A$6,RawData[Region],$F7)</f>
-        <v>43784</v>
+        <v>29276</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
@@ -7205,14 +5997,14 @@
       </c>
       <c r="I7" s="6">
         <f t="shared" si="0"/>
-        <v>45404</v>
+        <v>32528.799999999999</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L7" t="str">
         <f>INDEX($F$5:$F$9,MATCH(MIN($G$5:$G$9),$G$5:$G$9,0))&amp;" bought the least "&amp;A6&amp;" apps"</f>
-        <v>South America bought the least Game apps</v>
+        <v>South America bought the least Productivity apps</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -7221,15 +6013,15 @@
       </c>
       <c r="G8" s="6">
         <f>SUMIFS(RawData[Revenue],RawData[Year],$B$6,RawData[Division],$A$6,RawData[Region],$F8)</f>
-        <v>46336</v>
-      </c>
-      <c r="H8" t="str">
+        <v>45540</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="1"/>
-        <v/>
+        <v>45540</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="0"/>
-        <v>45404</v>
+        <v>32528.799999999999</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -7238,26 +6030,26 @@
       </c>
       <c r="G9" s="6">
         <f>SUMIFS(RawData[Revenue],RawData[Year],$B$6,RawData[Division],$A$6,RawData[Region],$F9)</f>
-        <v>49656</v>
-      </c>
-      <c r="H9">
+        <v>29277</v>
+      </c>
+      <c r="H9" t="str">
         <f t="shared" si="1"/>
-        <v>49656</v>
+        <v/>
       </c>
       <c r="I9" s="6">
         <f t="shared" si="0"/>
-        <v>45404</v>
+        <v>32528.799999999999</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="K12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -7268,13 +6060,13 @@
         <v>2</v>
       </c>
       <c r="M14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="N14" s="16" t="s">
+      <c r="O14" s="16" t="s">
         <v>30</v>
-      </c>
-      <c r="O14" s="16" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -7294,51 +6086,51 @@
       </c>
       <c r="L15" s="6">
         <f>GETPIVOTDATA(" Revenue",Calculation!$A$15,"Year","Current","Division",K15)</f>
-        <v>227020</v>
+        <v>44675</v>
       </c>
       <c r="M15" s="6">
         <f>MIN($L$15:$L$17)/2</f>
-        <v>81322</v>
+        <v>17077.5</v>
       </c>
       <c r="N15" s="6">
         <f>L15-M15-O15</f>
-        <v>64376</v>
+        <v>10520</v>
       </c>
       <c r="O15" s="6">
         <f t="shared" ref="O15:O17" si="2">MIN($L$15:$L$17)/2</f>
-        <v>81322</v>
+        <v>17077.5</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="E16" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D16" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="10" t="s">
+      <c r="F16" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G16" s="10" t="s">
         <v>26</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="K16" t="s">
         <v>14</v>
       </c>
       <c r="L16" s="6">
         <f>GETPIVOTDATA(" Revenue",Calculation!$A$15,"Year","Current","Division",K16)</f>
-        <v>162644</v>
+        <v>34155</v>
       </c>
       <c r="M16" s="6">
         <f t="shared" ref="M16:M17" si="3">MIN($L$15:$L$17)/2</f>
-        <v>81322</v>
+        <v>17077.5</v>
       </c>
       <c r="N16" s="6">
         <f t="shared" ref="N16:N17" si="4">L16-M16-O16</f>
@@ -7346,7 +6138,7 @@
       </c>
       <c r="O16" s="6">
         <f t="shared" si="2"/>
-        <v>81322</v>
+        <v>17077.5</v>
       </c>
     </row>
     <row r="17" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -7354,16 +6146,16 @@
         <v>12</v>
       </c>
       <c r="B17" s="11">
-        <v>227020</v>
+        <v>44675</v>
       </c>
       <c r="C17" s="15">
-        <v>0.1357019220186699</v>
+        <v>-0.17211793265756167</v>
       </c>
       <c r="D17" s="14">
-        <v>0.1357019220186699</v>
+        <v>-0.17211793265756167</v>
       </c>
       <c r="E17" s="11">
-        <v>199894</v>
+        <v>53963</v>
       </c>
       <c r="F17" s="15"/>
       <c r="G17" s="12"/>
@@ -7372,19 +6164,19 @@
       </c>
       <c r="L17" s="6">
         <f>GETPIVOTDATA(" Revenue",Calculation!$A$15,"Year","Current","Division",K17)</f>
-        <v>189979</v>
+        <v>44196</v>
       </c>
       <c r="M17" s="6">
         <f t="shared" si="3"/>
-        <v>81322</v>
+        <v>17077.5</v>
       </c>
       <c r="N17" s="6">
         <f t="shared" si="4"/>
-        <v>27335</v>
+        <v>10041</v>
       </c>
       <c r="O17" s="6">
         <f t="shared" si="2"/>
-        <v>81322</v>
+        <v>17077.5</v>
       </c>
     </row>
     <row r="18" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
@@ -7392,16 +6184,16 @@
         <v>14</v>
       </c>
       <c r="B18" s="11">
-        <v>162644</v>
+        <v>34155</v>
       </c>
       <c r="C18" s="15">
-        <v>1.796287255748745E-2</v>
+        <v>-0.34707805241727363</v>
       </c>
       <c r="D18" s="14">
-        <v>1.796287255748745E-2</v>
+        <v>-0.34707805241727363</v>
       </c>
       <c r="E18" s="11">
-        <v>159774</v>
+        <v>52311</v>
       </c>
       <c r="F18" s="15"/>
       <c r="G18" s="12"/>
@@ -7411,35 +6203,35 @@
         <v>13</v>
       </c>
       <c r="B19" s="11">
-        <v>189979</v>
+        <v>44196</v>
       </c>
       <c r="C19" s="15">
-        <v>1.5295243083204626E-2</v>
+        <v>0.81689619732785201</v>
       </c>
       <c r="D19" s="14">
-        <v>1.5295243083204626E-2</v>
+        <v>0.81689619732785201</v>
       </c>
       <c r="E19" s="11">
-        <v>187117</v>
+        <v>24325</v>
       </c>
       <c r="F19" s="15"/>
       <c r="G19" s="12"/>
     </row>
     <row r="20" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="11">
-        <v>579643</v>
+        <v>123026</v>
       </c>
       <c r="C20" s="15">
-        <v>6.0093089605603667E-2</v>
+        <v>-5.7986661459888664E-2</v>
       </c>
       <c r="D20" s="14">
-        <v>6.0093089605603667E-2</v>
+        <v>-5.7986661459888664E-2</v>
       </c>
       <c r="E20" s="11">
-        <v>546785</v>
+        <v>130599</v>
       </c>
       <c r="F20" s="15"/>
       <c r="G20" s="12"/>
